--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -97,30 +100,30 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>wow</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -139,16 +145,13 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -517,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -628,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,10 +884,10 @@
         <v>0.75</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.65</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -978,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -996,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.631578947368421</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1028,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>0.5555555555555556</v>
@@ -1078,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.574468085106383</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1096,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0.4166666666666667</v>
@@ -1128,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5357142857142857</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1146,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5072463768115942</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1196,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.2372881355932203</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1228,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1246,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.2185792349726776</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L16">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>858</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1278,13 +1281,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.358974358974359</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1296,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.03518518518518519</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>521</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1328,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1538461538461539</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1346,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.0275974025974026</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="L18">
         <v>17</v>
@@ -1370,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>599</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1378,37 +1381,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04697986577181208</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.02409638554216868</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1420,21 +1423,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.04026845637583892</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0.08</v>
+      </c>
+      <c r="F20">
+        <v>0.92</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>286</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.01920614596670935</v>
+        <v>0.01670506912442396</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1446,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>766</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.01382488479262673</v>
+        <v>0.01536491677336748</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1472,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1712</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
